--- a/data/trans_camb/P1418-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1418-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-6.889425555649869</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.817890860741532</v>
+        <v>-1.817890860741529</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.845945166027789</v>
+        <v>-9.542139963028132</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.23486309553615</v>
+        <v>-10.54731540435772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.950259567026394</v>
+        <v>-4.877467776632209</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.042619304095384</v>
+        <v>-6.42049195915987</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.570652167766063</v>
+        <v>-8.525035467586632</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.979739244047666</v>
+        <v>-4.816473036114516</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.519669002745901</v>
+        <v>-7.628261453464569</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.074563482850163</v>
+        <v>-9.199060961663594</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.249296966593714</v>
+        <v>-4.171088045929797</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.182161022550832</v>
+        <v>-4.281811946312909</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.086241560298672</v>
+        <v>-5.286555606785995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.31353063269667</v>
+        <v>2.327813463301238</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.09641519565510587</v>
+        <v>-0.1664437412246256</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-2.792452226932419</v>
+        <v>-2.63124125782049</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.981561411598157</v>
+        <v>1.746274321463644</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-3.27314996972529</v>
+        <v>-3.475436507744113</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.913289067456087</v>
+        <v>-4.940017326124589</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8239997665934806</v>
+        <v>0.6047832373326953</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.5258256832238348</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1387479545507061</v>
+        <v>-0.1387479545507059</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.788139420387951</v>
+        <v>-0.7821854788644043</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8226328406087887</v>
+        <v>-0.8193954671345829</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4306125345195713</v>
+        <v>-0.4266476840053799</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3744325632349617</v>
+        <v>-0.3860976081632487</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5117059313077749</v>
+        <v>-0.5113352427009817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3005715844815159</v>
+        <v>-0.2912022447246732</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5229541063059665</v>
+        <v>-0.5283222812047069</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6136959711490056</v>
+        <v>-0.627499760119913</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.29380148498463</v>
+        <v>-0.2866273517509307</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4932306690061187</v>
+        <v>-0.4997855310915266</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.5781263370552086</v>
+        <v>-0.5967069755429288</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2720649212988662</v>
+        <v>0.2587980659184704</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.009557219586201654</v>
+        <v>-0.007224412759989369</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2040008328596226</v>
+        <v>-0.1883087497459265</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1510778676928856</v>
+        <v>0.1322900483073687</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2856100552885505</v>
+        <v>-0.2964364230955491</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.4086215263730931</v>
+        <v>-0.4119043960012962</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.06784552903029877</v>
+        <v>0.05381470441836367</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.083765958534264</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.253826140778779</v>
+        <v>-2.253826140778778</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9875226200449048</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.245199895281945</v>
+        <v>-3.928379890729723</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.881150188245254</v>
+        <v>-4.759958633856922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.076552621430634</v>
+        <v>-3.929497458370684</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.803718251526862</v>
+        <v>-1.461408961332712</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.872271351201367</v>
+        <v>-5.032925540633735</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.6530221689347</v>
+        <v>-3.245703717369197</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.949441492879462</v>
+        <v>-2.239861754787702</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.999595057898944</v>
+        <v>-4.134766071855851</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.830800757586147</v>
+        <v>-2.850542691297802</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3788604530698277</v>
+        <v>-0.2217483264876518</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.5069053868253</v>
+        <v>-1.340412660902804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.6321071837269635</v>
+        <v>-0.5116863219199986</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.528484496486947</v>
+        <v>3.693249416795808</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05077380075486597</v>
+        <v>0.2117979771235215</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.159315603172721</v>
+        <v>1.295492783502353</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.380785167882665</v>
+        <v>1.165530092207308</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.127264352258893</v>
+        <v>-1.154149762859606</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.06995626511919838</v>
+        <v>0.1040844622443574</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5447267519329557</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3981234015799166</v>
+        <v>-0.3981234015799163</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1062818959505033</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6108509075925047</v>
+        <v>-0.5939991900765479</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7244646428152699</v>
+        <v>-0.7354459193211543</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6118854586219612</v>
+        <v>-0.5841110163103762</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1651418690574289</v>
+        <v>-0.1464493694301875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.453724980120607</v>
+        <v>-0.4736782463774891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3324009959435797</v>
+        <v>-0.301596469456379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2380773987926933</v>
+        <v>-0.270073063541737</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4970402185388625</v>
+        <v>-0.5016076151609493</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3345088394291973</v>
+        <v>-0.3419558442564566</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0580214962489073</v>
+        <v>-0.04263097902137664</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2770605482036007</v>
+        <v>-0.2829597453101346</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1172893248003406</v>
+        <v>-0.09365188994107179</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4333450399028539</v>
+        <v>0.453361616351655</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01365951976932009</v>
+        <v>0.03130841002828691</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1406790217769618</v>
+        <v>0.1741623988516313</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2111048475049654</v>
+        <v>0.1738664676453737</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1619813111358427</v>
+        <v>-0.1667747051467663</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-6.071136049452152e-05</v>
+        <v>0.01259859786475166</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.035864765283161</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.5447108564550551</v>
+        <v>-0.5447108564550579</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.6395315228213558</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8540162990705455</v>
+        <v>-0.8930035662549894</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.751426099325275</v>
+        <v>-1.84300612463912</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1943489791003147</v>
+        <v>-0.3154042071947894</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.175252955914861</v>
+        <v>-2.246607466056901</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.536837568012418</v>
+        <v>-3.822309738665802</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.854332571609118</v>
+        <v>-2.47374558957495</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9414590341072924</v>
+        <v>-0.8364607582932816</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.093639075562864</v>
+        <v>-2.11083918591612</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.8057993951683998</v>
+        <v>-0.9205475127775753</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.38718662695569</v>
+        <v>2.422458057618476</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8798784114729405</v>
+        <v>0.893542355408721</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.715627835983763</v>
+        <v>2.676016352345744</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.802390367754083</v>
+        <v>2.763920169485536</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.51917763494669</v>
+        <v>1.428797047397928</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.359300837483234</v>
+        <v>1.625937438020313</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.114533896646281</v>
+        <v>2.121620678085093</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8184000892869951</v>
+        <v>0.7506787545287222</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.745284992374154</v>
+        <v>1.701031069566213</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1367490767381722</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.07190968281378493</v>
+        <v>-0.07190968281378529</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1303915584407657</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2813897868835387</v>
+        <v>-0.2969059923933686</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5684331829449182</v>
+        <v>-0.5737474624468027</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.06235059211445477</v>
+        <v>-0.1075595706124303</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2495269427919799</v>
+        <v>-0.2547432200150828</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3966577033097839</v>
+        <v>-0.4344131659948852</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3140605686977452</v>
+        <v>-0.2889368597892126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1686714628503942</v>
+        <v>-0.1522231032571205</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3706509595225883</v>
+        <v>-0.3733534451816443</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1456789469766339</v>
+        <v>-0.1676445938173668</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.295991040214223</v>
+        <v>1.223292181577389</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5279864028687649</v>
+        <v>0.5333544678084539</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.492737382838432</v>
+        <v>1.466706875515818</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4315690840570211</v>
+        <v>0.434000181430307</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2478603638080384</v>
+        <v>0.2165683054688414</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2172120269456543</v>
+        <v>0.2634264730728005</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4926802057767642</v>
+        <v>0.4783606630146046</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1914841056021315</v>
+        <v>0.1898714967146913</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4271998116939806</v>
+        <v>0.3973871042373708</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-3.452061947854084</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.365468075108272</v>
+        <v>-1.365468075108273</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.5293281699177199</v>
@@ -1306,7 +1306,7 @@
         <v>-3.435568262511592</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.03271856788840538</v>
+        <v>0.03271856788840469</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.487234945297091</v>
+        <v>-5.814981578151115</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.168801643832603</v>
+        <v>-5.961460769573603</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.90108330307659</v>
+        <v>-3.777516203647926</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.705756571984914</v>
+        <v>-3.557910096844263</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.146348101876245</v>
+        <v>-7.131288005316557</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.341209495551629</v>
+        <v>-2.202973936143882</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.452227077178371</v>
+        <v>-3.639812153734909</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.515373177493955</v>
+        <v>-5.552839269369436</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.034493565903357</v>
+        <v>-1.913968244404493</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.048664466457964</v>
+        <v>-1.358233468015337</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.277913189278268</v>
+        <v>-1.43617257036475</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5808690255998104</v>
+        <v>0.7585959670041996</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.400440763737842</v>
+        <v>4.297330131810709</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.4094585596072938</v>
+        <v>-0.6639621655198298</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.124583158705549</v>
+        <v>3.99054673823719</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7842516499273339</v>
+        <v>0.8221404127529377</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.560073089582741</v>
+        <v>-1.37226837250778</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.788037831057657</v>
+        <v>1.761719732280355</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.6993684436763191</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.27663619512153</v>
+        <v>-0.2766361951215301</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.07731151565001639</v>
@@ -1411,7 +1411,7 @@
         <v>-0.596160287361335</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.005677520964215535</v>
+        <v>0.005677520964215414</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8634549908947037</v>
+        <v>-0.8644192704932288</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9036861217771387</v>
+        <v>-0.8963854532836091</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.577324904279332</v>
+        <v>-0.55596635419302</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3975018303955301</v>
+        <v>-0.4087760217299813</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7875467801694367</v>
+        <v>-0.7794686814757951</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2492338939434398</v>
+        <v>-0.2275793702673526</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5095594684945368</v>
+        <v>-0.5080361547454724</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.769882458251358</v>
+        <v>-0.7786688773295278</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2743663394767794</v>
+        <v>-0.2657841363699233</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2183441530974685</v>
+        <v>-0.2016880434271101</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2931876394547657</v>
+        <v>-0.3510041265544679</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.180330850032441</v>
+        <v>0.2325113142342317</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.893006871525848</v>
+        <v>0.941769981939974</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.03145808150567403</v>
+        <v>-0.0738016066194927</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8673557873411812</v>
+        <v>0.8886149467330396</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1813351572650068</v>
+        <v>0.2038227318322532</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3228110327923035</v>
+        <v>-0.2692389857639918</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3947810749270715</v>
+        <v>0.4063321887005754</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.247407866073097</v>
+        <v>-3.151642969081525</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.893749475659212</v>
+        <v>-3.849491343968239</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.062367212556235</v>
+        <v>-1.981490616980229</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.97638947716776</v>
+        <v>-2.055888471257408</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.419723097444987</v>
+        <v>-4.25968348674985</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.644653449534645</v>
+        <v>-2.607663125460874</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.194635517779614</v>
+        <v>-2.170508425120585</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.790201009014905</v>
+        <v>-3.6908912443593</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.947561445572015</v>
+        <v>-1.931037044326808</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.232092483990266</v>
+        <v>-1.228708308748386</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.048894373602519</v>
+        <v>-1.983874519864383</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05891143452113712</v>
+        <v>0.01860270653511011</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.059832745472648</v>
+        <v>0.9646957632196468</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.540217414062822</v>
+        <v>-1.496429802684177</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.09934180455466869</v>
+        <v>-0.006435932851119201</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.3526309818124066</v>
+        <v>-0.3015999431237895</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.15274793814668</v>
+        <v>-2.029798736921145</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.3558566724822703</v>
+        <v>-0.2918333063624365</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5414507132598756</v>
+        <v>-0.5331210846077462</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.658410462808578</v>
+        <v>-0.654522554155218</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3499259966782897</v>
+        <v>-0.3387728278422767</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1764651750696128</v>
+        <v>-0.1825377802021409</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4012459457303302</v>
+        <v>-0.3940936652676097</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2438008806989167</v>
+        <v>-0.2386869083454427</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2649707540498891</v>
+        <v>-0.2635105729465195</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.458351231308702</v>
+        <v>-0.4544953811414257</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.238239770297035</v>
+        <v>-0.2333658698799053</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2412617662398492</v>
+        <v>-0.2534702474860657</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.4191861367570598</v>
+        <v>-0.4202696160547095</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.0173161149659002</v>
+        <v>0.006306548989023001</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1153913245337582</v>
+        <v>0.102954911851618</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1606071110697471</v>
+        <v>-0.1577304086910734</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.01076897157672126</v>
+        <v>-0.002803657594237068</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.04678359900738738</v>
+        <v>-0.03914661322014029</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.293892926613428</v>
+        <v>-0.2798902909833587</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.04865965210885849</v>
+        <v>-0.04004256222628723</v>
       </c>
     </row>
     <row r="34">
